--- a/汽柴煤油2.0/data_input_auto/Brent-汽油-柴油-新加坡煤油.xlsx
+++ b/汽柴煤油2.0/data_input_auto/Brent-汽油-柴油-新加坡煤油.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4577"/>
+  <dimension ref="A1:G4579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89676,12 +89676,58 @@
       <c r="D4577" t="n">
         <v>3958.2305</v>
       </c>
-      <c r="E4577" t="inlineStr"/>
+      <c r="E4577" t="n">
+        <v>91.48</v>
+      </c>
       <c r="F4577" t="n">
         <v>6358</v>
       </c>
       <c r="G4577" t="n">
         <v>7181</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4578" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="C4578" t="n">
+        <v>3803.0716</v>
+      </c>
+      <c r="D4578" t="n">
+        <v>3878.9558</v>
+      </c>
+      <c r="E4578" t="n">
+        <v>91.65000000000001</v>
+      </c>
+      <c r="F4578" t="n">
+        <v>6267</v>
+      </c>
+      <c r="G4578" t="n">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4579" t="n">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="C4579" t="n">
+        <v>3766.4833</v>
+      </c>
+      <c r="D4579" t="n">
+        <v>3879.827</v>
+      </c>
+      <c r="E4579" t="inlineStr"/>
+      <c r="F4579" t="n">
+        <v>6268</v>
+      </c>
+      <c r="G4579" t="n">
+        <v>7036</v>
       </c>
     </row>
   </sheetData>
